--- a/reports/resnet18_23_no_MMTM/prediction/4/prediction_train_4.xlsx
+++ b/reports/resnet18_23_no_MMTM/prediction/4/prediction_train_4.xlsx
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
@@ -1154,7 +1154,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C87" t="n">
         <v>1</v>
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C90" t="n">
         <v>1</v>
@@ -1648,7 +1648,7 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C94" t="n">
         <v>1</v>
@@ -1804,7 +1804,7 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C106" t="n">
         <v>0</v>
@@ -1869,7 +1869,7 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C111" t="n">
         <v>0</v>
@@ -1934,7 +1934,7 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C116" t="n">
         <v>0</v>
@@ -2142,7 +2142,7 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C132" t="n">
         <v>0</v>
@@ -2168,7 +2168,7 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C134" t="n">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C146" t="n">
         <v>1</v>
@@ -2337,7 +2337,7 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C147" t="n">
         <v>0</v>
